--- a/medicine/Sexualité et sexologie/Les_Mille_et_Une_Nuits_(film,_1969)/Les_Mille_et_Une_Nuits_(film,_1969).xlsx
+++ b/medicine/Sexualité et sexologie/Les_Mille_et_Une_Nuits_(film,_1969)/Les_Mille_et_Une_Nuits_(film,_1969).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mille et Une Nuits (千夜一夜物語, Senya Ichiya monogatari?) est un film d'animation japonais conçu et écrit par Osamu Tezuka, réalisé par Eiichi Yamamoto et produit par le studio Mushi Production en 1969. Il tire bien entendu son inspiration du recueil de contes orientaux Les Mille et Une Nuits.
-Le film est connu pour appartenir à la trilogie de films pour adultes (érotiques) « Animerama », produite par Mushi Production et Osamu Tezuka dans les années 1970. C'est aussi le tout premier film d'animation pour adultes de l'histoire du Japon[1].
+Le film est connu pour appartenir à la trilogie de films pour adultes (érotiques) « Animerama », produite par Mushi Production et Osamu Tezuka dans les années 1970. C'est aussi le tout premier film d'animation pour adultes de l'histoire du Japon.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aladin, le personnage principal, est un jeune vendeur d'eau de Bagdad sans le sou, qui tombe amoureux d'une esclave nommée Miriam. Ils passent une nuit délicieuse ensemble, mais sont séparés par des bandits. Miriam mourra quelque temps après, laissant Aladin désespéré. Quinze ans après, ce dernier devient roi et cherche alors à se venger, tout en réunissant des femmes envoutantes dans son harem.
 </t>
@@ -545,12 +559,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Production et contenu
-À la fin des années soixante, Osamu Tezuka a l'ambition d'élargir son public – jusque-là essentiellement composé d'enfants – en réalisant des films pour adulte, qu'il appellera les Animerama[2]. Senya Ichiya Monogatari est le premier d'entre eux - c'est d'ailleurs le premier film d'animation à caractère érotique du Japon[1].
-L'animation a été réalisée en séparant les tâches : chaque animateur avait la responsabilité d'animer un personnage ou une scène[3]. Tezuka lui-même a animé des séquences du film, par exemple la scène des Amazone et du serpent.
-Au niveau du contenu, le film est moins érotique que les deux Animerama suivants, mais aborde des thèmes risqués comme les harems ou l'inceste[2]. Destinée à être exportée, l'œuvre réunit dans ce but des éléments étrangers assez hétéroclites ; par exemple, le visage du héros est inspiré de l'acteur français Jean-Paul Belmondo[4], la musique tient du rock en vogue à l'époque[5], et l'intrigue est bien sûr tirée du recueil oriental des Milles et Unes nuits.
-Diffusion
-Le film a été diffusé le 14 juin 1969 au Japon[6]. La presse sera quelque peu divisée : la dimension commerciale du film a déplu[5], comme le fait que le héros – musulman – mange du porc et boive du vin, ce que sa religion interdit. D'ailleurs, la version qui sortira aux États-Unis sera largement censurée[4]. Cela n'empêchera cependant pas le film de remporter un certain succès[2].
+          <t>Production et contenu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin des années soixante, Osamu Tezuka a l'ambition d'élargir son public – jusque-là essentiellement composé d'enfants – en réalisant des films pour adulte, qu'il appellera les Animerama. Senya Ichiya Monogatari est le premier d'entre eux - c'est d'ailleurs le premier film d'animation à caractère érotique du Japon.
+L'animation a été réalisée en séparant les tâches : chaque animateur avait la responsabilité d'animer un personnage ou une scène. Tezuka lui-même a animé des séquences du film, par exemple la scène des Amazone et du serpent.
+Au niveau du contenu, le film est moins érotique que les deux Animerama suivants, mais aborde des thèmes risqués comme les harems ou l'inceste. Destinée à être exportée, l'œuvre réunit dans ce but des éléments étrangers assez hétéroclites ; par exemple, le visage du héros est inspiré de l'acteur français Jean-Paul Belmondo, la musique tient du rock en vogue à l'époque, et l'intrigue est bien sûr tirée du recueil oriental des Milles et Unes nuits.
 </t>
         </is>
       </c>
@@ -576,19 +593,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Diffusion</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été diffusé le 14 juin 1969 au Japon. La presse sera quelque peu divisée : la dimension commerciale du film a déplu, comme le fait que le héros – musulman – mange du porc et boive du vin, ce que sa religion interdit. D'ailleurs, la version qui sortira aux États-Unis sera largement censurée. Cela n'empêchera cependant pas le film de remporter un certain succès.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits_(film,_1969)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits_(film,_1969)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Titre : Les Mille et Une Nuits
 Titre original : Senya Ichiya Monogatari (千夜一夜物語?)
 Pays :  Japon
 Genre : Anime
 Durée : 128 min
-Date de sortie : Japon : 14 juin 1969
-Staff
-D'après l'idée de : Osamu Tezuka
+Date de sortie : Japon : 14 juin 1969</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits_(film,_1969)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits_(film,_1969)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après l'idée de : Osamu Tezuka
 Réalisateur : Eiichi Yamamoto
 Scénariste : Hiroyuki Kumai, Kazuo Fukasawa et Osamu Tezuka
 Musique : Isao Tomita
@@ -601,9 +691,44 @@
 Prises de vues réelles : Yoshio Wakino
 Effets spéciaux : Hiramatsu Bijutsu Kôbô
 Studio : Mushi Production
-Sources [7],[8]:
-Doublage VO
-Yukio Aoshima : Aladin
+Sources ,:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits_(film,_1969)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits_(film,_1969)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Doublage VO</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yukio Aoshima : Aladin
 Asao Koike : Kamarkim
 Haruko Katō : le génie
 Hiroshi Akutagawa : Budley
@@ -611,11 +736,81 @@
 Kyōko Kishida : Jaris et Miriam
 Noboru Mitsuya : Gin
 Sachiko Ito : Mardia
-Sources[7],[8] :
-Bande originale
-Bien que le compositeur soit Isao Tomita, le thème principal d'Aladin a été créé et interprété par le groupe The Helpful Soul[9].
-Récompense
-Classé 105e meilleur film d'animation de tous les temps au Laputa Animation Festival de Tokyo en 2003[10].</t>
+Sources, :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits_(film,_1969)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits_(film,_1969)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bande originale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que le compositeur soit Isao Tomita, le thème principal d'Aladin a été créé et interprété par le groupe The Helpful Soul.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits_(film,_1969)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits_(film,_1969)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Classé 105e meilleur film d'animation de tous les temps au Laputa Animation Festival de Tokyo en 2003.</t>
         </is>
       </c>
     </row>
